--- a/Notes/Results.xlsx
+++ b/Notes/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Desktop\Research\thesis-material\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC759B9-0CD5-4E56-A897-248B4E78FE67}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2EE86-CD1B-4027-8418-54892DDF3259}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{1B77F3A6-51DA-4C88-8809-05C1C1C68755}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -109,12 +109,15 @@
   </si>
   <si>
     <t>Average Result</t>
+  </si>
+  <si>
+    <t>First Choice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,12 +157,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -424,6 +427,80 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -433,12 +510,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,40 +537,70 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{35EB8350-F809-4879-AACB-AB448B0AE24E}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -792,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925B6D54-017F-4506-ACFC-F52550EFF54B}">
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,427 +922,592 @@
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="G2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16">
-        <v>5</v>
-      </c>
-      <c r="E4" s="16">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17">
+        <v>5</v>
+      </c>
+      <c r="F4" s="23">
         <f>(D4/E4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="27">
+        <f>G4/D4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="19">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="24">
         <f t="shared" ref="F5:F24" si="0">(D5/E5)</f>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="G5" s="18">
+        <v>10</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" ref="H5:H24" si="1">G5/D5</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="19">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="19">
+        <v>5</v>
+      </c>
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="19">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="19">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="G7" s="18">
+        <v>4</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="19">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="19">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="19">
         <v>12</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="G9" s="18">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="H9" s="28">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="19">
         <v>13</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="19">
         <v>13</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="F10" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>13</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="19">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="19">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="G11" s="18">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="19">
+        <v>5</v>
+      </c>
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="G12" s="18">
+        <v>4</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="19">
         <v>13</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="19">
         <v>15</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="G13" s="18">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="H13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="D14" s="19">
+        <v>5</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="19">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="19">
+        <v>5</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="19">
         <v>6</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="19">
         <v>7</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="G16" s="18">
+        <v>6</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="19">
         <v>4</v>
       </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="19">
+        <v>5</v>
+      </c>
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="G17" s="18">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="19">
         <v>8</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="19">
         <v>15</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="G18" s="18">
+        <v>8</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="19">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="19">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+      <c r="G20" s="18">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="19">
+        <v>5</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+      <c r="G21" s="18">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="19">
         <v>25</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="19">
         <v>29</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>0.86206896551724133</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="G22" s="18">
+        <v>24</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
         <v>20</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="21">
         <v>3</v>
       </c>
-      <c r="E23" s="12">
-        <v>5</v>
-      </c>
-      <c r="F23" s="14">
+      <c r="E23" s="21">
+        <v>5</v>
+      </c>
+      <c r="F23" s="25">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="G23" s="20">
+        <v>3</v>
+      </c>
+      <c r="H23" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20">
+      <c r="C24" s="13"/>
+      <c r="D24" s="3">
         <f>SUM(D4:D23)</f>
         <v>135</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="3">
         <f>SUM(E4:E23)</f>
         <v>171</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="29">
         <f t="shared" si="0"/>
         <v>0.78947368421052633</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="G24" s="3">
+        <f>SUM(G4:G23)</f>
+        <v>121</v>
+      </c>
+      <c r="H24" s="32">
+        <f t="shared" si="1"/>
+        <v>0.89629629629629626</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24">
+      <c r="C25" s="11"/>
+      <c r="D25" s="14">
         <f>AVERAGE(F4:F23)</f>
         <v>0.77756773399014789</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="34">
+        <f>AVERAGE(H4:H23)</f>
+        <v>0.89169658119658113</v>
+      </c>
+      <c r="H25" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
